--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="72">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -207,6 +207,30 @@
   </si>
   <si>
     <t xml:space="preserve">Read temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdanab.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura wewnątrz:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wczytywanie...&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wczytywanie...</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1470,10 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1476,21 +1500,6 @@
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>49</v>
       </c>
@@ -1510,21 +1519,6 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
@@ -1687,13 +1681,10 @@
       <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -1702,7 +1693,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -1710,16 +1701,16 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1727,41 +1718,22 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="7"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="85">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -231,6 +231,45 @@
   </si>
   <si>
     <t xml:space="preserve">wczytywanie...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentTemperatureTextRes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempInsideWildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempInsideText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,0x20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,0x2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt;°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C0123456789.</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1512,7 @@
         <v>64</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1500,9 +1539,24 @@
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1684,16 +1738,16 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -1701,16 +1755,16 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1718,10 +1772,10 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="90">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -270,6 +270,21 @@
   </si>
   <si>
     <t xml:space="preserve">°C0123456789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature_wildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempOWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasdsadsaasassasadasd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wczytywanie....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1555,7 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -1741,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
@@ -1772,22 +1787,55 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="101">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -285,6 +285,39 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obecnie:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odczuwalna:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small_font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owm_style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C0123456789.%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odczuw.:</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1560,7 @@
         <v>64</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1561,17 +1594,19 @@
         <v>64</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1588,7 +1623,26 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="I6"/>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
         <v>2</v>
@@ -1605,6 +1659,27 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1790,7 +1865,7 @@
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -1821,21 +1896,40 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="103">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t xml:space="preserve">Odczuw.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z,0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°.%/</t>
   </si>
 </sst>
 </file>
@@ -1601,11 +1607,11 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
@@ -1637,11 +1643,11 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
@@ -1673,11 +1679,11 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J7"/>
       <c r="L7" s="7" t="s">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="110">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -324,6 +324,27 @@
   </si>
   <si>
     <t xml:space="preserve">°.%/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°.%/ąęćółńżź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°.%/ąęćółńżź </t>
+  </si>
+  <si>
+    <t xml:space="preserve">owm_style_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weatherDest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weatherDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°. %/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°. %/ąęćółńżź </t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1587,7 @@
         <v>64</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1600,14 +1621,14 @@
         <v>64</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
@@ -1643,7 +1664,7 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
@@ -1679,7 +1700,7 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -1703,6 +1724,27 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1934,7 +1976,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="11"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="113">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t xml:space="preserve">°. %/ąęćółńżź </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp. wewnątrz:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp. wewnątrz</t>
   </si>
 </sst>
 </file>
@@ -1927,16 +1936,16 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -1944,7 +1953,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
@@ -1953,7 +1962,7 @@
         <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1961,16 +1970,16 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1978,16 +1987,16 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="134">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -354,6 +354,69 @@
   </si>
   <si>
     <t xml:space="preserve">Temp. wewnątrz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RobotoCondensed-Regular.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnteredText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;placeholder&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlphaMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa miasta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wpisz co</t>
   </si>
 </sst>
 </file>
@@ -1769,6 +1832,29 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9"/>
       <c r="L9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1786,6 +1872,29 @@
       </c>
     </row>
     <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10"/>
       <c r="L10" s="11" t="s">
         <v>36</v>
       </c>
@@ -1801,9 +1910,47 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:16">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="M12" s="16" t="s">
         <v>35</v>
       </c>
@@ -2002,7 +2149,125 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="136">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -417,6 +417,13 @@
   </si>
   <si>
     <t xml:space="preserve">wpisz co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa
+miasta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wpisz nazwę miasta</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2218,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -2262,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="140">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -424,6 +424,20 @@
   </si>
   <si>
     <t xml:space="preserve">wpisz nazwę miasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa
+miasta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprawdź pogodę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazwa
+miasta:</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2232,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -2272,6 +2286,23 @@
         <v>135</v>
       </c>
       <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
         <v>56</v>
       </c>
     </row>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="141">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -438,6 +438,9 @@
   <si>
     <t xml:space="preserve">Nazwa
 miasta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miasto:</t>
   </si>
 </sst>
 </file>
@@ -1957,10 +1960,10 @@
         <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2232,7 +2235,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="143">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t xml:space="preserve">Miasto:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status:</t>
   </si>
 </sst>
 </file>
@@ -2309,6 +2315,23 @@
         <v>56</v>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="145">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t xml:space="preserve">Status:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°. %/ąęćółńżź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°. %/ąęćółńżźś</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1736,7 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
@@ -1766,7 +1772,7 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
@@ -1802,7 +1808,7 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -1840,7 +1846,7 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
